--- a/osaamistutkaHYOppialaryhmat.xlsx
+++ b/osaamistutkaHYOppialaryhmat.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\ATKK\home\t\tvkangas\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tvkangas\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="7830"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13590" windowHeight="7830"/>
   </bookViews>
   <sheets>
     <sheet name="Luokkakoodit" sheetId="2" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="254">
   <si>
     <t>Maaperä- ja ympäristötiede</t>
   </si>
@@ -784,6 +784,9 @@
   <si>
     <t>Koodi</t>
   </si>
+  <si>
+    <t>Sosiologia ja sosiaalipolitiikka</t>
+  </si>
 </sst>
 </file>
 
@@ -1112,7 +1115,7 @@
   <dimension ref="A1:AC8997"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C32" sqref="C32:G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2499,12 +2502,14 @@
         <v>1116</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>48</v>
+        <v>253</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="D31" s="3"/>
+      <c r="D31" s="4" t="s">
+        <v>97</v>
+      </c>
       <c r="E31" s="3"/>
       <c r="F31" s="4"/>
       <c r="G31" s="3"/>
@@ -2538,22 +2543,19 @@
       <c r="B32" s="4" t="s">
         <v>250</v>
       </c>
-      <c r="C32" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="D32" s="3" t="s">
+      <c r="C32" s="3" t="s">
         <v>57</v>
       </c>
+      <c r="D32" s="4" t="s">
+        <v>205</v>
+      </c>
       <c r="E32" s="4" t="s">
-        <v>205</v>
+        <v>66</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>66</v>
+        <v>89</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="H32" s="4" t="s">
         <v>102</v>
       </c>
       <c r="I32" s="3"/>
